--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a18467_alunos_ipca_pt/Documents/IPCA/2º Ano/1º Semestre/Desenvolvimento Colaborativo de Software/Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a18467_alunos_ipca_pt/Documents/IPCA/2º Ano/1º Semestre/Desenvolvimento Colaborativo de Software/Projeto/DriveFood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="8_{A36CC85F-8202-4936-9E37-2E223DC4A5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29323552-5B74-46EC-B02B-9255950718E1}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="8_{A36CC85F-8202-4936-9E37-2E223DC4A5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D83DE646-D1B0-4626-9C21-6BC61B9700C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7598ED27-1AC8-41E7-965D-D9DD27C41232}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7598ED27-1AC8-41E7-965D-D9DD27C41232}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Prioridade</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Pontos da História</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -331,10 +331,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B886E82-4B6F-49B1-94A1-6B9E78909ACD}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.6"/>
@@ -651,22 +647,22 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -675,117 +671,117 @@
     </row>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5">
         <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5">
         <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5">
         <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5">
         <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -840,55 +836,55 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6"/>
     </row>
